--- a/biology/Botanique/Vignoble_charentais/Vignoble_charentais.xlsx
+++ b/biology/Botanique/Vignoble_charentais/Vignoble_charentais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le vignoble charentais ou vignoble des Charentes est une région viticole française localisée sur les deux départements de la Charente et de la Charente-Maritime. Parfois rattachée au vignoble du Sud-Ouest, elle est principalement connue pour son eau-de-vie, le cognac[2], mais produit également des vins, dont plusieurs sont classés en indication géographique protégée (Charentais et Atlantique), la conjonction des deux produisant également une mistelle, le pineau des Charentes[3].
+Le vignoble charentais ou vignoble des Charentes est une région viticole française localisée sur les deux départements de la Charente et de la Charente-Maritime. Parfois rattachée au vignoble du Sud-Ouest, elle est principalement connue pour son eau-de-vie, le cognac, mais produit également des vins, dont plusieurs sont classés en indication géographique protégée (Charentais et Atlantique), la conjonction des deux produisant également une mistelle, le pineau des Charentes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le charentais, appelé « vin de pays charentais » jusqu'en 2009, est un vin d'indication géographique protégée de zone, produit sur les deux départements de Charente et de Charente-Maritime. Le label vin de pays charentais représente l'union par la production de ces deux départements formant l'aire géographique protégée (IGP). Les premières traces d'implantation d'un vignoble remontent à la fin du IIIe siècle[4], dans la province de Saintonge (qui correspond à l'ouest et au sud de l'actuel département de la Charente-Maritime). Toutefois, c'est véritablement au Moyen Âge qu'il prend son envol, sous l'impulsion d'Aliénor d'Aquitaine et du futur roi d'Angleterre Henri II Plantagenêt (Empire Plantagenêt), afin de répondre à la demande croissante de la noblesse danoise, norvégienne et anglaise[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le charentais, appelé « vin de pays charentais » jusqu'en 2009, est un vin d'indication géographique protégée de zone, produit sur les deux départements de Charente et de Charente-Maritime. Le label vin de pays charentais représente l'union par la production de ces deux départements formant l'aire géographique protégée (IGP). Les premières traces d'implantation d'un vignoble remontent à la fin du IIIe siècle, dans la province de Saintonge (qui correspond à l'ouest et au sud de l'actuel département de la Charente-Maritime). Toutefois, c'est véritablement au Moyen Âge qu'il prend son envol, sous l'impulsion d'Aliénor d'Aquitaine et du futur roi d'Angleterre Henri II Plantagenêt (Empire Plantagenêt), afin de répondre à la demande croissante de la noblesse danoise, norvégienne et anglaise.
 	Vin de pays charentais et Cognac
 			Blanc, Île d'Oléron.
 			Vignes de Saint-Sornin (Charente), au flanc et pied occidental du Massif de l'Arbre.
